--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-10T13:33:39+05:45</t>
+    <t>2025-08-12T23:24:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T23:24:39+05:45</t>
+    <t>2025-08-13T23:06:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T23:06:39+05:45</t>
+    <t>2025-08-14T11:08:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.hmis.gov.np/ValueSet/condition-severity</t>
+    <t>https://fhir.hmis.gov.np/ValueSet/condition-severity</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T11:08:36+05:45</t>
+    <t>2025-08-14T14:11:38+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:11:38+05:45</t>
+    <t>2025-08-14T18:06:03+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T18:06:03+05:45</t>
+    <t>2025-08-15T10:07:00+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-15T10:07:00+05:45</t>
+    <t>2025-08-19T07:52:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:52:08+05:45</t>
+    <t>2025-08-20T08:30:34+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,24 +124,6 @@
   </si>
   <si>
     <t>Mild</t>
-  </si>
-  <si>
-    <t>55929007</t>
-  </si>
-  <si>
-    <t>Feeling irritable (finding)</t>
-  </si>
-  <si>
-    <t>418107008</t>
-  </si>
-  <si>
-    <t>Unconscious (finding)</t>
-  </si>
-  <si>
-    <t>214264003</t>
-  </si>
-  <si>
-    <t>Lethargy (finding)</t>
   </si>
   <si>
     <t/>
@@ -427,7 +409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -474,39 +456,15 @@
         <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-condition-severity.xlsx
+++ b/output/ValueSet-condition-severity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
